--- a/SaucedemoTestPlan.xlsx
+++ b/SaucedemoTestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\TestAutomationSauceDemo\all-info-of-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E2A78A-7D16-40F5-B4DB-D9147DF5AF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0183EC-E093-484B-A397-CC9CF9398DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1710" windowWidth="28065" windowHeight="14925" tabRatio="928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14129,33 +14129,249 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -14178,15 +14394,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14261,238 +14468,31 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14582,28 +14582,28 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14842,7 +14842,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14862,994 +14862,936 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="151" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="65"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="143"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="143"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="144"/>
+      <c r="C5" s="169" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="143"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="144"/>
+      <c r="C6" s="172" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="65"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="143"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="172" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="65"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="143"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="144"/>
+      <c r="C8" s="172" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="65"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="143"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="144"/>
+      <c r="C9" s="172" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="65"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="143"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="144"/>
+      <c r="C10" s="172" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="65"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="144"/>
+      <c r="C11" s="172" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="65"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="144"/>
+      <c r="C12" s="172" t="s">
         <v>317</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="65"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="53" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="172" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="65"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="65"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="143"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="82" t="s">
+      <c r="B15" s="144"/>
+      <c r="C15" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="65"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="143"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="85" t="s">
+      <c r="B16" s="144"/>
+      <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="65"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="143"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="144"/>
+      <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="65"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="85" t="s">
+      <c r="B18" s="144"/>
+      <c r="C18" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="65"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="143"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="144"/>
+      <c r="C19" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="65"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="143"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="91" t="s">
+      <c r="B20" s="144"/>
+      <c r="C20" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="65"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="143"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="144"/>
+      <c r="C21" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="65"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="143"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="144"/>
+      <c r="C22" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="65"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="143"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="144"/>
+      <c r="C23" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="65"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="143"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="144"/>
+      <c r="C24" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="65"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="143"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="100" t="s">
+      <c r="B25" s="144"/>
+      <c r="C25" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="65"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="143"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="103" t="s">
+      <c r="B26" s="144"/>
+      <c r="C26" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="65"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="143"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="103" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="65"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="143"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="106" t="s">
+      <c r="B28" s="144"/>
+      <c r="C28" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="65"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="143"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="73" t="s">
+      <c r="B29" s="144"/>
+      <c r="C29" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="65"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="143"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="109" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="65"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="66"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="65"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="143"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="66"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="111"/>
-      <c r="F32" s="65"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="143"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="66"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
       <c r="E33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="144"/>
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="65"/>
+      <c r="F34" s="143"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="66"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="6"/>
       <c r="D35" s="9"/>
       <c r="E35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="143"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="70" t="s">
+      <c r="B36" s="144"/>
+      <c r="C36" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="65"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="143"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="112" t="s">
+      <c r="B37" s="144"/>
+      <c r="C37" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="65"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="143"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="109" t="s">
+      <c r="B38" s="144"/>
+      <c r="C38" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="65"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="143"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="65"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="143"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="112" t="s">
+      <c r="B40" s="144"/>
+      <c r="C40" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="113"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="65"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="143"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="109" t="s">
+      <c r="B41" s="144"/>
+      <c r="C41" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="65"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="143"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="65"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="143"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="120" t="s">
+      <c r="B43" s="144"/>
+      <c r="C43" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="121"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="65"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="143"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="123" t="s">
+      <c r="B44" s="144"/>
+      <c r="C44" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="65"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="143"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="123" t="s">
+      <c r="B45" s="144"/>
+      <c r="C45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="65"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="143"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="65"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="127" t="s">
+      <c r="B47" s="144"/>
+      <c r="C47" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="128"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="65"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="143"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="123" t="s">
+      <c r="B48" s="144"/>
+      <c r="C48" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="65"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="143"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="66"/>
+      <c r="B49" s="144"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="115" t="s">
+      <c r="D49" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="116"/>
-      <c r="F49" s="65"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="143"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="123" t="s">
+      <c r="B50" s="144"/>
+      <c r="C50" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="115"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="65"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="143"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="144"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="115" t="s">
+      <c r="D51" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="116"/>
-      <c r="F51" s="65"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="143"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="123" t="s">
+      <c r="B52" s="144"/>
+      <c r="C52" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="115"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="65"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="143"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="66"/>
+      <c r="B53" s="144"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="115" t="s">
+      <c r="D53" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="116"/>
-      <c r="F53" s="65"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="143"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="65"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="143"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="127" t="s">
+      <c r="B55" s="144"/>
+      <c r="C55" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="128"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="65"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="143"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="123" t="s">
+      <c r="B56" s="144"/>
+      <c r="C56" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="115"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="65"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="143"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="123" t="s">
+      <c r="B57" s="144"/>
+      <c r="C57" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="115"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="65"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="143"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="65"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="143"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="130" t="s">
+      <c r="B59" s="144"/>
+      <c r="C59" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="131"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="65"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="143"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="133" t="s">
+      <c r="B60" s="144"/>
+      <c r="C60" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="134"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="65"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="143"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="133" t="s">
+      <c r="B61" s="144"/>
+      <c r="C61" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="65"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="65"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="143"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="136" t="s">
+      <c r="B63" s="144"/>
+      <c r="C63" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="137"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="65"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="143"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="133" t="s">
+      <c r="B64" s="144"/>
+      <c r="C64" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="134"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="65"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="143"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="133" t="s">
+      <c r="B65" s="144"/>
+      <c r="C65" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="134"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="65"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="143"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="133" t="s">
+      <c r="B66" s="144"/>
+      <c r="C66" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="134"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="65"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="143"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="133" t="s">
+      <c r="B67" s="144"/>
+      <c r="C67" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="134"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="65"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="143"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="65"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="136" t="s">
+      <c r="B69" s="144"/>
+      <c r="C69" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="137"/>
-      <c r="E69" s="138"/>
-      <c r="F69" s="65"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="143"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="133" t="s">
+      <c r="B70" s="144"/>
+      <c r="C70" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="134"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="65"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="143"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="133" t="s">
+      <c r="B71" s="144"/>
+      <c r="C71" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="134"/>
-      <c r="E71" s="135"/>
-      <c r="F71" s="65"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="143"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="133" t="s">
+      <c r="B72" s="144"/>
+      <c r="C72" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="134"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="65"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="143"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="154"/>
-      <c r="D73" s="155"/>
-      <c r="E73" s="156"/>
-      <c r="F73" s="65"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="143"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="157" t="s">
+      <c r="B74" s="144"/>
+      <c r="C74" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="D74" s="158"/>
-      <c r="E74" s="159"/>
-      <c r="F74" s="65"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="143"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="153" t="s">
+      <c r="B75" s="144"/>
+      <c r="C75" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="145"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="65"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="143"/>
       <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
-      <c r="B76" s="66"/>
+      <c r="B76" s="144"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="145" t="s">
+      <c r="D76" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="E76" s="146"/>
-      <c r="F76" s="65"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="143"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
-      <c r="B77" s="66"/>
+      <c r="B77" s="144"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="145" t="s">
+      <c r="D77" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="E77" s="146"/>
-      <c r="F77" s="65"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="143"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="66"/>
+      <c r="B78" s="144"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="145" t="s">
+      <c r="D78" s="69" t="s">
         <v>350</v>
       </c>
-      <c r="E78" s="146"/>
-      <c r="F78" s="65"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="143"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
-      <c r="B79" s="66"/>
+      <c r="B79" s="144"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="145" t="s">
+      <c r="D79" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="E79" s="146"/>
-      <c r="F79" s="65"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="143"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="66"/>
+      <c r="B80" s="144"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="145" t="s">
+      <c r="D80" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="E80" s="146"/>
-      <c r="F80" s="65"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="143"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="153" t="s">
+      <c r="B81" s="144"/>
+      <c r="C81" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="145"/>
-      <c r="E81" s="146"/>
-      <c r="F81" s="65"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="143"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
-      <c r="B82" s="66"/>
+      <c r="B82" s="144"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="145" t="s">
+      <c r="D82" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="E82" s="146"/>
-      <c r="F82" s="65"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="143"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="66"/>
+      <c r="B83" s="144"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="145" t="s">
+      <c r="D83" s="69" t="s">
         <v>354</v>
       </c>
-      <c r="E83" s="146"/>
-      <c r="F83" s="65"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="143"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
-      <c r="B84" s="66"/>
+      <c r="B84" s="144"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="145" t="s">
+      <c r="D84" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="146"/>
-      <c r="F84" s="65"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="143"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="147"/>
-      <c r="D85" s="148"/>
-      <c r="E85" s="149"/>
-      <c r="F85" s="65"/>
+      <c r="B85" s="144"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="143"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="150" t="s">
+      <c r="B86" s="144"/>
+      <c r="C86" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="151"/>
-      <c r="E86" s="152"/>
-      <c r="F86" s="65"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="143"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="153" t="s">
+      <c r="B87" s="144"/>
+      <c r="C87" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="145"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="65"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="143"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
-      <c r="B88" s="66"/>
+      <c r="B88" s="144"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="145" t="s">
+      <c r="D88" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="146"/>
-      <c r="F88" s="65"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="143"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="162"/>
-      <c r="F89" s="65"/>
+      <c r="B89" s="144"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="143"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="166" t="s">
+      <c r="B90" s="144"/>
+      <c r="C90" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D90" s="167"/>
-      <c r="E90" s="168"/>
-      <c r="F90" s="65"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="143"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="169" t="s">
+      <c r="B91" s="144"/>
+      <c r="C91" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="170"/>
-      <c r="E91" s="171"/>
-      <c r="F91" s="65"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="143"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="172"/>
-      <c r="D92" s="173"/>
-      <c r="E92" s="174"/>
-      <c r="F92" s="65"/>
+      <c r="B92" s="144"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="143"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="175" t="s">
+      <c r="B93" s="144"/>
+      <c r="C93" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="176"/>
-      <c r="E93" s="177"/>
-      <c r="F93" s="65"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="143"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="169" t="s">
+      <c r="B94" s="144"/>
+      <c r="C94" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D94" s="170"/>
-      <c r="E94" s="171"/>
-      <c r="F94" s="65"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="143"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="163"/>
-      <c r="D95" s="164"/>
-      <c r="E95" s="165"/>
-      <c r="F95" s="65"/>
+      <c r="B95" s="144"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="143"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="59"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="61"/>
+      <c r="B96" s="137"/>
+      <c r="C96" s="138"/>
+      <c r="D96" s="138"/>
+      <c r="E96" s="138"/>
+      <c r="F96" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="B96:F96"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="F3:F95"/>
@@ -15866,16 +15808,74 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21396,20 +21396,20 @@
     </row>
     <row r="18" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="209" t="s">
+      <c r="D19" s="213" t="s">
         <v>313</v>
       </c>
-      <c r="E19" s="210"/>
+      <c r="E19" s="214"/>
     </row>
     <row r="20" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="207"/>
-      <c r="E20" s="208"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
     </row>
     <row r="21" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="211" t="s">
+      <c r="D21" s="207" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="212"/>
+      <c r="E21" s="208"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D22" s="32" t="s">
@@ -21444,14 +21444,14 @@
       </c>
     </row>
     <row r="26" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="207"/>
-      <c r="E26" s="208"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
     </row>
     <row r="27" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="211" t="s">
+      <c r="D27" s="207" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="212"/>
+      <c r="E27" s="208"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D28" s="32" t="s">
@@ -21478,14 +21478,14 @@
       </c>
     </row>
     <row r="31" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="207"/>
-      <c r="E31" s="208"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="210"/>
     </row>
     <row r="32" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="211" t="s">
+      <c r="D32" s="207" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="212"/>
+      <c r="E32" s="208"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D33" s="32" t="s">
@@ -21520,15 +21520,15 @@
       </c>
     </row>
     <row r="37" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
+      <c r="D37" s="209"/>
+      <c r="E37" s="210"/>
       <c r="G37" s="36"/>
     </row>
     <row r="38" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="211" t="s">
+      <c r="D38" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="E38" s="212"/>
+      <c r="E38" s="208"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -21550,15 +21550,15 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="207"/>
-      <c r="E41" s="208"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="210"/>
       <c r="G41" s="36"/>
     </row>
     <row r="42" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="211" t="s">
+      <c r="D42" s="207" t="s">
         <v>272</v>
       </c>
-      <c r="E42" s="212"/>
+      <c r="E42" s="208"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -21594,14 +21594,14 @@
       </c>
     </row>
     <row r="47" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="207"/>
-      <c r="E47" s="208"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="210"/>
     </row>
     <row r="48" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="213" t="s">
+      <c r="D48" s="211" t="s">
         <v>260</v>
       </c>
-      <c r="E48" s="214"/>
+      <c r="E48" s="212"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="33" t="s">
@@ -21620,14 +21620,14 @@
       </c>
     </row>
     <row r="51" spans="4:5" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="207"/>
-      <c r="E51" s="208"/>
+      <c r="D51" s="209"/>
+      <c r="E51" s="210"/>
     </row>
     <row r="52" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="213" t="s">
+      <c r="D52" s="211" t="s">
         <v>270</v>
       </c>
-      <c r="E52" s="214"/>
+      <c r="E52" s="212"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="32" t="s">
@@ -21654,14 +21654,14 @@
       </c>
     </row>
     <row r="56" spans="4:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="207"/>
-      <c r="E56" s="208"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="210"/>
     </row>
     <row r="57" spans="4:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="211" t="s">
+      <c r="D57" s="207" t="s">
         <v>293</v>
       </c>
-      <c r="E57" s="212"/>
+      <c r="E57" s="208"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="32" t="s">
@@ -21689,12 +21689,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="B2:J2"/>
@@ -21711,12 +21711,12 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D48:E48"/>
   </mergeCells>
   <phoneticPr fontId="76" type="noConversion"/>
   <hyperlinks>

--- a/SaucedemoTestPlan.xlsx
+++ b/SaucedemoTestPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\TestAutomationSauceDemo\all-info-of-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\מידע שלי\! אלעד - תיקיות !\Auotomation Folder !\מכללת אוטומאציה - קורס ותירגול\HTML Course\MyResumeCV\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0183EC-E093-484B-A397-CC9CF9398DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C76BB9-23A7-4DF4-92DB-8D5275BE8B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1710" windowWidth="28065" windowHeight="14925" tabRatio="928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2805" windowWidth="28140" windowHeight="15195" tabRatio="928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -12508,7 +12508,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">★  Orig file  </t>
+      <t xml:space="preserve">★  Online file  </t>
     </r>
     <r>
       <rPr>
@@ -12527,7 +12527,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>2023-07-31  –  19:20</t>
+      <t>2023-08-09  –  17:20</t>
     </r>
   </si>
 </sst>
@@ -14129,249 +14129,33 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -14394,6 +14178,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14468,31 +14261,238 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14582,28 +14582,28 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14862,936 +14862,994 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="151" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="143"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="143"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="169" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="143"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="172" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="143"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="172" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="143"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="172" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="143"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="172" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="143"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="172" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="143"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="172" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="173"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="143"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="172" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="143"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="172" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="143"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="175" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="143"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="157" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="143"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="160" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="143"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="160" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="143"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="160" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="143"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="163" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="164"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="143"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="166" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="143"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="122" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="143"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="122" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="143"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="122" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="143"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="125" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="143"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="128" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="143"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="131" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="143"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="131" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="143"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="65"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="134" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="143"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="148" t="s">
+      <c r="B29" s="66"/>
+      <c r="C29" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="143"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="110" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="143"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="144"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="143"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="144"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="112"/>
-      <c r="F32" s="143"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="144"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
       <c r="E33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="143"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="144"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="143"/>
+      <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="144"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="6"/>
       <c r="D35" s="9"/>
       <c r="E35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="143"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="145" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="146"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="143"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="66"/>
+      <c r="C37" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="143"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="110" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="143"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="143"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="107" t="s">
+      <c r="B40" s="66"/>
+      <c r="C40" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="143"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="110" t="s">
+      <c r="B41" s="66"/>
+      <c r="C41" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="143"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="143"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="116" t="s">
+      <c r="B43" s="66"/>
+      <c r="C43" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="117"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="143"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="95" t="s">
+      <c r="B44" s="66"/>
+      <c r="C44" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="96"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="143"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="95" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="96"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="143"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="65"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="144"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="143"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="144"/>
-      <c r="C47" s="92" t="s">
+      <c r="B47" s="66"/>
+      <c r="C47" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="143"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="65"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="95" t="s">
+      <c r="B48" s="66"/>
+      <c r="C48" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="143"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="65"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="144"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="96" t="s">
+      <c r="D49" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="97"/>
-      <c r="F49" s="143"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="65"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="95" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="143"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="65"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="144"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="96" t="s">
+      <c r="D51" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="97"/>
-      <c r="F51" s="143"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="65"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="95" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="96"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="143"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="65"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="144"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="96" t="s">
+      <c r="D53" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="97"/>
-      <c r="F53" s="143"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="65"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="143"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="65"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="92" t="s">
+      <c r="B55" s="66"/>
+      <c r="C55" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="93"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="143"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="95" t="s">
+      <c r="B56" s="66"/>
+      <c r="C56" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="96"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="143"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="144"/>
-      <c r="C57" s="95" t="s">
+      <c r="B57" s="66"/>
+      <c r="C57" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="96"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="143"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="65"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="144"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="143"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="65"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="104" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="105"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="143"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="65"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="71" t="s">
+      <c r="B60" s="66"/>
+      <c r="C60" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="143"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="65"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="144"/>
-      <c r="C61" s="71" t="s">
+      <c r="B61" s="66"/>
+      <c r="C61" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="72"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="143"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="65"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="144"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="143"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="65"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="86" t="s">
+      <c r="B63" s="66"/>
+      <c r="C63" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="87"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="143"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="71" t="s">
+      <c r="B64" s="66"/>
+      <c r="C64" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="143"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="65"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="144"/>
-      <c r="C65" s="71" t="s">
+      <c r="B65" s="66"/>
+      <c r="C65" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="72"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="143"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="65"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="144"/>
-      <c r="C66" s="71" t="s">
+      <c r="B66" s="66"/>
+      <c r="C66" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="72"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="143"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="65"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="144"/>
-      <c r="C67" s="71" t="s">
+      <c r="B67" s="66"/>
+      <c r="C67" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="72"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="143"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="65"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="144"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="143"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="141"/>
+      <c r="F68" s="65"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="144"/>
-      <c r="C69" s="86" t="s">
+      <c r="B69" s="66"/>
+      <c r="C69" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="143"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="138"/>
+      <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="144"/>
-      <c r="C70" s="71" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="72"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="143"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="65"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="144"/>
-      <c r="C71" s="71" t="s">
+      <c r="B71" s="66"/>
+      <c r="C71" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="72"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="143"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="135"/>
+      <c r="F71" s="65"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="B72" s="144"/>
-      <c r="C72" s="71" t="s">
+      <c r="B72" s="66"/>
+      <c r="C72" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="143"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="65"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
-      <c r="B73" s="144"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="143"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="154"/>
+      <c r="D73" s="155"/>
+      <c r="E73" s="156"/>
+      <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="77" t="s">
+      <c r="B74" s="66"/>
+      <c r="C74" s="157" t="s">
         <v>356</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="143"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="159"/>
+      <c r="F74" s="65"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
-      <c r="B75" s="144"/>
-      <c r="C75" s="68" t="s">
+      <c r="B75" s="66"/>
+      <c r="C75" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="143"/>
+      <c r="D75" s="145"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="65"/>
       <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
-      <c r="B76" s="144"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="145" t="s">
         <v>351</v>
       </c>
-      <c r="E76" s="70"/>
-      <c r="F76" s="143"/>
+      <c r="E76" s="146"/>
+      <c r="F76" s="65"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
-      <c r="B77" s="144"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="69" t="s">
+      <c r="D77" s="145" t="s">
         <v>352</v>
       </c>
-      <c r="E77" s="70"/>
-      <c r="F77" s="143"/>
+      <c r="E77" s="146"/>
+      <c r="F77" s="65"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="144"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="69" t="s">
+      <c r="D78" s="145" t="s">
         <v>350</v>
       </c>
-      <c r="E78" s="70"/>
-      <c r="F78" s="143"/>
+      <c r="E78" s="146"/>
+      <c r="F78" s="65"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
-      <c r="B79" s="144"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="69" t="s">
+      <c r="D79" s="145" t="s">
         <v>353</v>
       </c>
-      <c r="E79" s="70"/>
-      <c r="F79" s="143"/>
+      <c r="E79" s="146"/>
+      <c r="F79" s="65"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="144"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="69" t="s">
+      <c r="D80" s="145" t="s">
         <v>349</v>
       </c>
-      <c r="E80" s="70"/>
-      <c r="F80" s="143"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="65"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
-      <c r="B81" s="144"/>
-      <c r="C81" s="68" t="s">
+      <c r="B81" s="66"/>
+      <c r="C81" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="143"/>
+      <c r="D81" s="145"/>
+      <c r="E81" s="146"/>
+      <c r="F81" s="65"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
-      <c r="B82" s="144"/>
+      <c r="B82" s="66"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="69" t="s">
+      <c r="D82" s="145" t="s">
         <v>355</v>
       </c>
-      <c r="E82" s="70"/>
-      <c r="F82" s="143"/>
+      <c r="E82" s="146"/>
+      <c r="F82" s="65"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="144"/>
+      <c r="B83" s="66"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="69" t="s">
+      <c r="D83" s="145" t="s">
         <v>354</v>
       </c>
-      <c r="E83" s="70"/>
-      <c r="F83" s="143"/>
+      <c r="E83" s="146"/>
+      <c r="F83" s="65"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
-      <c r="B84" s="144"/>
+      <c r="B84" s="66"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="69" t="s">
+      <c r="D84" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="70"/>
-      <c r="F84" s="143"/>
+      <c r="E84" s="146"/>
+      <c r="F84" s="65"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="144"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="143"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="148"/>
+      <c r="E85" s="149"/>
+      <c r="F85" s="65"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
-      <c r="B86" s="144"/>
-      <c r="C86" s="83" t="s">
+      <c r="B86" s="66"/>
+      <c r="C86" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="84"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="143"/>
+      <c r="D86" s="151"/>
+      <c r="E86" s="152"/>
+      <c r="F86" s="65"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
-      <c r="B87" s="144"/>
-      <c r="C87" s="68" t="s">
+      <c r="B87" s="66"/>
+      <c r="C87" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="69"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="143"/>
+      <c r="D87" s="145"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="65"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
-      <c r="B88" s="144"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="69" t="s">
+      <c r="D88" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="70"/>
-      <c r="F88" s="143"/>
+      <c r="E88" s="146"/>
+      <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
-      <c r="B89" s="144"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="143"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="161"/>
+      <c r="E89" s="162"/>
+      <c r="F89" s="65"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="144"/>
-      <c r="C90" s="56" t="s">
+      <c r="B90" s="66"/>
+      <c r="C90" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="D90" s="57"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="143"/>
+      <c r="D90" s="167"/>
+      <c r="E90" s="168"/>
+      <c r="F90" s="65"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="144"/>
-      <c r="C91" s="59" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="143"/>
+      <c r="D91" s="170"/>
+      <c r="E91" s="171"/>
+      <c r="F91" s="65"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
-      <c r="B92" s="144"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="143"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="172"/>
+      <c r="D92" s="173"/>
+      <c r="E92" s="174"/>
+      <c r="F92" s="65"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
-      <c r="B93" s="144"/>
-      <c r="C93" s="65" t="s">
+      <c r="B93" s="66"/>
+      <c r="C93" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="66"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="143"/>
+      <c r="D93" s="176"/>
+      <c r="E93" s="177"/>
+      <c r="F93" s="65"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
-      <c r="B94" s="144"/>
-      <c r="C94" s="59" t="s">
+      <c r="B94" s="66"/>
+      <c r="C94" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="143"/>
+      <c r="D94" s="170"/>
+      <c r="E94" s="171"/>
+      <c r="F94" s="65"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
-      <c r="B95" s="144"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="143"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="163"/>
+      <c r="D95" s="164"/>
+      <c r="E95" s="165"/>
+      <c r="F95" s="65"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="137"/>
-      <c r="C96" s="138"/>
-      <c r="D96" s="138"/>
-      <c r="E96" s="138"/>
-      <c r="F96" s="139"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="B96:F96"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="F3:F95"/>
@@ -15808,74 +15866,16 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21396,20 +21396,20 @@
     </row>
     <row r="18" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="213" t="s">
+      <c r="D19" s="209" t="s">
         <v>313</v>
       </c>
-      <c r="E19" s="214"/>
+      <c r="E19" s="210"/>
     </row>
     <row r="20" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="209"/>
-      <c r="E20" s="210"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
     </row>
     <row r="21" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="207" t="s">
+      <c r="D21" s="211" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="208"/>
+      <c r="E21" s="212"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D22" s="32" t="s">
@@ -21444,14 +21444,14 @@
       </c>
     </row>
     <row r="26" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="209"/>
-      <c r="E26" s="210"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="208"/>
     </row>
     <row r="27" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="207" t="s">
+      <c r="D27" s="211" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="208"/>
+      <c r="E27" s="212"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D28" s="32" t="s">
@@ -21478,14 +21478,14 @@
       </c>
     </row>
     <row r="31" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="209"/>
-      <c r="E31" s="210"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="208"/>
     </row>
     <row r="32" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="207" t="s">
+      <c r="D32" s="211" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="208"/>
+      <c r="E32" s="212"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D33" s="32" t="s">
@@ -21520,15 +21520,15 @@
       </c>
     </row>
     <row r="37" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="209"/>
-      <c r="E37" s="210"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
       <c r="G37" s="36"/>
     </row>
     <row r="38" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="207" t="s">
+      <c r="D38" s="211" t="s">
         <v>271</v>
       </c>
-      <c r="E38" s="208"/>
+      <c r="E38" s="212"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -21550,15 +21550,15 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="209"/>
-      <c r="E41" s="210"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="208"/>
       <c r="G41" s="36"/>
     </row>
     <row r="42" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="207" t="s">
+      <c r="D42" s="211" t="s">
         <v>272</v>
       </c>
-      <c r="E42" s="208"/>
+      <c r="E42" s="212"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -21594,14 +21594,14 @@
       </c>
     </row>
     <row r="47" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="209"/>
-      <c r="E47" s="210"/>
+      <c r="D47" s="207"/>
+      <c r="E47" s="208"/>
     </row>
     <row r="48" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="211" t="s">
+      <c r="D48" s="213" t="s">
         <v>260</v>
       </c>
-      <c r="E48" s="212"/>
+      <c r="E48" s="214"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="33" t="s">
@@ -21620,14 +21620,14 @@
       </c>
     </row>
     <row r="51" spans="4:5" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="209"/>
-      <c r="E51" s="210"/>
+      <c r="D51" s="207"/>
+      <c r="E51" s="208"/>
     </row>
     <row r="52" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="211" t="s">
+      <c r="D52" s="213" t="s">
         <v>270</v>
       </c>
-      <c r="E52" s="212"/>
+      <c r="E52" s="214"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="32" t="s">
@@ -21654,14 +21654,14 @@
       </c>
     </row>
     <row r="56" spans="4:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="209"/>
-      <c r="E56" s="210"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="208"/>
     </row>
     <row r="57" spans="4:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="207" t="s">
+      <c r="D57" s="211" t="s">
         <v>293</v>
       </c>
-      <c r="E57" s="208"/>
+      <c r="E57" s="212"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="32" t="s">
@@ -21689,12 +21689,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="B2:J2"/>
@@ -21711,12 +21711,12 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <phoneticPr fontId="76" type="noConversion"/>
   <hyperlinks>

--- a/SaucedemoTestPlan.xlsx
+++ b/SaucedemoTestPlan.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\מידע שלי\! אלעד - תיקיות !\Auotomation Folder !\מכללת אוטומאציה - קורס ותירגול\HTML Course\MyResumeCV\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C76BB9-23A7-4DF4-92DB-8D5275BE8B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F63180-2DC5-4CFD-9A64-09FAFAC0AF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2805" windowWidth="28140" windowHeight="15195" tabRatio="928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13305" yWindow="1545" windowWidth="15750" windowHeight="15225" tabRatio="928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="1. LoginAuthentication" sheetId="2" r:id="rId2"/>
-    <sheet name="2. ProductsInventory list" sheetId="15" r:id="rId3"/>
-    <sheet name="3. ItemActions info add remove " sheetId="18" r:id="rId4"/>
-    <sheet name="4.  CommonMenu" sheetId="14" r:id="rId5"/>
-    <sheet name="5. Cart (page and icon)" sheetId="20" r:id="rId6"/>
-    <sheet name="6. CO-info" sheetId="19" r:id="rId7"/>
-    <sheet name="7. CO-finishE2E" sheetId="21" r:id="rId8"/>
-    <sheet name="8. FunctionalE2E" sheetId="23" r:id="rId9"/>
+    <sheet name="TestTypes" sheetId="24" r:id="rId1"/>
+    <sheet name="Test Plan" sheetId="1" r:id="rId2"/>
+    <sheet name="1. LoginAuthentication" sheetId="2" r:id="rId3"/>
+    <sheet name="2. ProductsInventory list" sheetId="15" r:id="rId4"/>
+    <sheet name="3. ItemActions info add remove " sheetId="18" r:id="rId5"/>
+    <sheet name="4.  CommonMenu" sheetId="14" r:id="rId6"/>
+    <sheet name="5. Cart (page and icon)" sheetId="20" r:id="rId7"/>
+    <sheet name="6. CO-info" sheetId="19" r:id="rId8"/>
+    <sheet name="7. CO-finishE2E" sheetId="21" r:id="rId9"/>
+    <sheet name="8. FunctionalE2E" sheetId="23" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk137404080" localSheetId="0">TestTypes!$C$68</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="398">
   <si>
     <t>Comments</t>
   </si>
@@ -12530,12 +12534,1307 @@
       <t>2023-08-09  –  17:20</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Functional QA testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Black Box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> testing - verifying the functionality of a software application or system to ensure that it meets the specified requirements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Positive testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Functions as expected when provided with valid inputs, and under normal conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Negative testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>How the software handles invalid or unexpected inputs and error conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">35 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Types:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> How the software handles invalid or unexpected inputs and error conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unit Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify functionality of individual units or components (functions, methods, or classes). Typically performed by developers during the development.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Integration Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Conducted to verify the interaction and data flow between different components, modules, or systems. The objective is to identify any issues that may arise when integrating individual components.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>System Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify the complete &amp; integrated software system to ensure that it meets the specified requirements. It involves testing the software as a whole and includes functionality, performance, security, and other aspects.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acceptance Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Performed by Company testers &amp; Client representatives to ensure that the software meets the requirements &amp; is ready for deployment. Focuses on validating user's perspective &amp; often involve real-world scenarios. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Delivery &amp; Deploy Testing: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Performed by QA in-charge of Installation process testing – Validate proper deploy of each component in all aspects… !!!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Functional Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Functional tests aim to verify that the software functions as expected and meets the specified functional requirements. It involves testing individual features, user interfaces, input validations, and error handling.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Regression Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Performed after making changes to the software, to ensure the existing functionality is not affected by modifications. Involves retesting previously tested features, to uncover any new defects or regressions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Progression Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ensure that new functionality added to software is as expected and meets the specified functional requirements. Involves testing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>individual features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>user interfaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>input validations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>error handling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Smoke Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quick Test - performed to ensure that most critical features of an application function correctly. Typically executed after deploy before comprehensive testing - Acts as a preliminary check even Prior to Sanity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sanity Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Testing focused on quickly checking the core functionalities of application, to determine if it is stable enough for more even comprehensive testing. Purpose of sanity is to identify major issues early in the dev-life-cycle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>End-to-End Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify the entire software system, including multiple components, interfaces, and interactions between them. It aims to validate the flows and functionalities of the entire system as a user would experience it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>GUI Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify the visual aspects of the client-software (Graphical User Interface) components and interactions between the user &amp; interface - aims to ensure a smooth and intuitive user experience &amp; validate proper flows and functionality of all the interactive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Layout and Design Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>GUI testing assesses the visual layout, design consistency, and responsiveness of the user interface. It involves checking the placement, alignment, spacing, and size of UI elements to ensure they adhere to the design guidelines.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Error Handling Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Evaluate how software handles various error scenarios, such as invalid inputs, exceptions, or unexpected system behaviors. Ensures appropriate Error Messages displayed and system recovers gracefully.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Boundary &amp; End Cases Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Check software properly validate &amp; handles edge cases of data inputs at the boundaries of acceptable values (valid &amp; invalid ranges at lower &amp; upper limits, and values just outside those limits).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>API Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Validates the functionality, reliability, and security of the software's APIs = Application Programming Interface. It involves testing API endpoints, request/response formats, authentication mechanisms, and data integrity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data Integrity Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data integrity tests verify the accuracy, consistency, and integrity of data stored or processed by the software. It includes validating data inputs, outputs, calculations, and database interactions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data Conversions Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that one data format can be converted into another data format so that the converted data format can be used seamlessly by the application under test appropriately.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Compatibility Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify software is compatible with different hardware, operating systems, browsers or devices. It ensures that the application works correctly in various network environments and configurations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Usability Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluate how user-friendly the software is by assessing its ease of use, intuitiveness, and overall user experience. Testers simulate user interactions and observe user behavior to identify any usability issues.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accessibility (for disabled) Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Verify whether the software is accessible to individuals with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>disabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It ensures compliance with accessibility standards and regulations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localization Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assess whether software has been properly adapted to support different languages, cultures, and locales. Checks accurate translations, correct date and time formats, currency symbols and localized elements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Internationalization Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Focus on designing and developing software in a way that makes it easier to localize. It involves testing the software's ability to handle international data formats, character encodings &amp; cultural differences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Security Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assess the software's resilience against potential vulnerabilities, threats, or unauthorized access. It includes testing authentication, authorization, encryption, input validation, and other security mechanisms.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fault Tolerance, High Availability and Geo Redundancy Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assess the software's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>ability to enable users' access &amp; get proper \ limited functionality of system while one or more components fail !</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recovery Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluate system's ability to recover from failures or disruptions (as varied crashes and loss of power or network), to ensure restart &amp; resumes stable operate state &amp; maintain data integrity (no data corruptions).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Back-Up &amp; Restore Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Evaluate the effectiveness of an organization’s software and methods of replicating data for security and its ability to reliably retrieve that data should the need arise…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Performance Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluate the software's performance under expected or increased load conditions. It involves measuring response times, throughput, scalability, and resource usage to identify performance bottlenecks.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Load Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assesses the software's performance under anticipated user loads. It simulates a high volume of concurrent users or transactions to determine how system handles the increased load and if it meets perf-criteria.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stability and Durability Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Technique used to determine the characteristics of a system under various load conditions over time. This helps us to identify the stability of transaction response times over the duration of test.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stress Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluates software's performance under extreme conditions, such as high concurrent users, heavy data loads, or limited system resources. Aims to identify the breaking point or performance degradation of the system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Compliance (to standards) Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ensure the software meets regulatory, legal &amp; industry-specific requirements. It involves verifying adherence to standards, regulations, data protection laws, and specific business rules.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Installation Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Check the software's installation process to ensure it can be installed, upgraded, or uninstalled correctly on various platforms. It includes verifying prerequisites, file integrity, and proper configuration. Installability…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Configuration Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Validates the software's behavior and functionality under different configuration settings. It verifies that the software works correctly with different settings, options, or parameter combinations. Configurability…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Interoperability Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Assess software's ability to interact and function correctly with other systems, platforms, or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>external interfaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. It validates seamless data exchange &amp; compatibility with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>third-party applications</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>integrations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="109" x14ac:knownFonts="1">
+  <fonts count="115" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -13281,6 +14580,45 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -13416,7 +14754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -13975,12 +15313,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -14129,33 +15545,249 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -14178,15 +15810,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14261,238 +15884,31 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14582,11 +15998,23 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -14594,17 +16022,26 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14636,6 +16073,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15459075</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>4333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="תמונה 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D6E65C-49BD-480B-AE36-69FC78DEDE65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="8715374"/>
+          <a:ext cx="15459075" cy="9881759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14835,13 +16321,1881 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51DB6A0-A123-46BD-8A19-58F12CC76022}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:T44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2" style="3" customWidth="1"/>
+    <col min="3" max="3" width="232" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="12.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="215" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="184"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="216" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="184"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="217" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="184"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="218" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="184"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="219" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="184"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="219" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="184"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="219" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="184"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="219" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="184"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="219" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="184"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="219" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="184"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="219" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="184"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="219" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="184"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="219" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="184"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="219" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="184"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="219" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" s="184"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="219" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="184"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="219" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="184"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="219" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="184"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="219" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="184"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="219" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="184"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="219" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="219" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="184"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="219" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" s="184"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="219" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" s="184"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="219" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="184"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="219" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" s="184"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="219" t="s">
+        <v>384</v>
+      </c>
+      <c r="D29" s="184"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="219" t="s">
+        <v>385</v>
+      </c>
+      <c r="D30" s="184"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="219" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="219" t="s">
+        <v>387</v>
+      </c>
+      <c r="D32" s="184"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="219" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="184"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="219" t="s">
+        <v>389</v>
+      </c>
+      <c r="D34" s="184"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="219" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="184"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="219" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" s="184"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="219" t="s">
+        <v>392</v>
+      </c>
+      <c r="D37" s="184"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="219" t="s">
+        <v>393</v>
+      </c>
+      <c r="D38" s="184"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="185"/>
+      <c r="C39" s="219" t="s">
+        <v>394</v>
+      </c>
+      <c r="D39" s="184"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="219" t="s">
+        <v>395</v>
+      </c>
+      <c r="D40" s="184"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="220" t="s">
+        <v>396</v>
+      </c>
+      <c r="D41" s="184"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="221" t="s">
+        <v>397</v>
+      </c>
+      <c r="D42" s="184"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="181"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="183"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:B42"/>
+    <mergeCell ref="D3:D42"/>
+    <mergeCell ref="B43:D43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AC207B-7F3F-4BA4-B9C5-12420BDB7C31}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AD60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:30" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="188" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="191"/>
+      <c r="J3" s="184"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="186" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="184"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="196" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="205" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="199"/>
+      <c r="J5" s="184"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="206" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="184"/>
+    </row>
+    <row r="7" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="184"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="184"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:30" ht="109.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="184"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" ht="109.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="184"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" ht="109.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="184"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+    </row>
+    <row r="12" spans="1:30" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="184"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="13" spans="1:30" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="184"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" ht="49.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="184"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="202" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="181"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="213" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="214"/>
+    </row>
+    <row r="20" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
+    </row>
+    <row r="21" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="207" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="208"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D22" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D23" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D24" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
+    </row>
+    <row r="27" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="207" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="208"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D28" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D29" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D30" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="209"/>
+      <c r="E31" s="210"/>
+    </row>
+    <row r="32" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="207" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="208"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="209"/>
+      <c r="E37" s="210"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="207" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="208"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D39" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="209"/>
+      <c r="E41" s="210"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="207" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" s="208"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D43" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D44" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D45" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D46" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="209"/>
+      <c r="E47" s="210"/>
+    </row>
+    <row r="48" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="211" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="212"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="209"/>
+      <c r="E51" s="210"/>
+    </row>
+    <row r="52" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="211" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="212"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="209"/>
+      <c r="E56" s="210"/>
+    </row>
+    <row r="57" spans="4:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="207" t="s">
+        <v>293</v>
+      </c>
+      <c r="E57" s="208"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:J15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D48:E48"/>
+  </mergeCells>
+  <phoneticPr fontId="76" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" display="Enter to the next website: https://www.saucedemo.com/" xr:uid="{46D5EA37-F72F-4183-8ACA-925EE01F74A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14862,994 +18216,936 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="151" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="65"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="143"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="143"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="144"/>
+      <c r="C5" s="169" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="143"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="144"/>
+      <c r="C6" s="172" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="65"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="143"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="172" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="65"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="143"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="144"/>
+      <c r="C8" s="172" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="65"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="143"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="144"/>
+      <c r="C9" s="172" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="65"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="143"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="144"/>
+      <c r="C10" s="172" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="65"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="144"/>
+      <c r="C11" s="172" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="65"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="144"/>
+      <c r="C12" s="172" t="s">
         <v>317</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="65"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="53" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="172" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="65"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="65"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="143"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="82" t="s">
+      <c r="B15" s="144"/>
+      <c r="C15" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="65"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="143"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="85" t="s">
+      <c r="B16" s="144"/>
+      <c r="C16" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="65"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="143"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="144"/>
+      <c r="C17" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="65"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="85" t="s">
+      <c r="B18" s="144"/>
+      <c r="C18" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="65"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="143"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="144"/>
+      <c r="C19" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="65"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="143"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="91" t="s">
+      <c r="B20" s="144"/>
+      <c r="C20" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="65"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="143"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="144"/>
+      <c r="C21" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="65"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="143"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="144"/>
+      <c r="C22" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="65"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="143"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="144"/>
+      <c r="C23" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="65"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="143"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="144"/>
+      <c r="C24" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="65"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="143"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="100" t="s">
+      <c r="B25" s="144"/>
+      <c r="C25" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="65"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="143"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="103" t="s">
+      <c r="B26" s="144"/>
+      <c r="C26" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="65"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="143"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="103" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="65"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="143"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="106" t="s">
+      <c r="B28" s="144"/>
+      <c r="C28" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="65"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="143"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="73" t="s">
+      <c r="B29" s="144"/>
+      <c r="C29" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="65"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="143"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="109" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="65"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="66"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="65"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="143"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="66"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="111"/>
-      <c r="F32" s="65"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="143"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="66"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
       <c r="E33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="144"/>
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="65"/>
+      <c r="F34" s="143"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="66"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="6"/>
       <c r="D35" s="9"/>
       <c r="E35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="143"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="70" t="s">
+      <c r="B36" s="144"/>
+      <c r="C36" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="65"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="143"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="112" t="s">
+      <c r="B37" s="144"/>
+      <c r="C37" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="65"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="143"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="109" t="s">
+      <c r="B38" s="144"/>
+      <c r="C38" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="65"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="143"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="65"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="143"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="112" t="s">
+      <c r="B40" s="144"/>
+      <c r="C40" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="113"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="65"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="143"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="109" t="s">
+      <c r="B41" s="144"/>
+      <c r="C41" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="65"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="143"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="65"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="143"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="120" t="s">
+      <c r="B43" s="144"/>
+      <c r="C43" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="121"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="65"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="143"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="123" t="s">
+      <c r="B44" s="144"/>
+      <c r="C44" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="65"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="143"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="123" t="s">
+      <c r="B45" s="144"/>
+      <c r="C45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="65"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="143"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="65"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="127" t="s">
+      <c r="B47" s="144"/>
+      <c r="C47" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="128"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="65"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="143"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="123" t="s">
+      <c r="B48" s="144"/>
+      <c r="C48" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="65"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="143"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="66"/>
+      <c r="B49" s="144"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="115" t="s">
+      <c r="D49" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="116"/>
-      <c r="F49" s="65"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="143"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="123" t="s">
+      <c r="B50" s="144"/>
+      <c r="C50" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="115"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="65"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="143"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="144"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="115" t="s">
+      <c r="D51" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="116"/>
-      <c r="F51" s="65"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="143"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="123" t="s">
+      <c r="B52" s="144"/>
+      <c r="C52" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="115"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="65"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="143"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="66"/>
+      <c r="B53" s="144"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="115" t="s">
+      <c r="D53" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="116"/>
-      <c r="F53" s="65"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="143"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="65"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="143"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="127" t="s">
+      <c r="B55" s="144"/>
+      <c r="C55" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="128"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="65"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="143"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="123" t="s">
+      <c r="B56" s="144"/>
+      <c r="C56" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="115"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="65"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="143"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="123" t="s">
+      <c r="B57" s="144"/>
+      <c r="C57" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="115"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="65"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="143"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="65"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="143"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="130" t="s">
+      <c r="B59" s="144"/>
+      <c r="C59" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="131"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="65"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="143"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="133" t="s">
+      <c r="B60" s="144"/>
+      <c r="C60" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="134"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="65"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="143"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="133" t="s">
+      <c r="B61" s="144"/>
+      <c r="C61" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="65"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="65"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="143"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="136" t="s">
+      <c r="B63" s="144"/>
+      <c r="C63" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="137"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="65"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="143"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="133" t="s">
+      <c r="B64" s="144"/>
+      <c r="C64" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="134"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="65"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="143"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="133" t="s">
+      <c r="B65" s="144"/>
+      <c r="C65" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="134"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="65"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="143"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="133" t="s">
+      <c r="B66" s="144"/>
+      <c r="C66" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="134"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="65"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="143"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="133" t="s">
+      <c r="B67" s="144"/>
+      <c r="C67" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="134"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="65"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="143"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="65"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="136" t="s">
+      <c r="B69" s="144"/>
+      <c r="C69" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="137"/>
-      <c r="E69" s="138"/>
-      <c r="F69" s="65"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="143"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="133" t="s">
+      <c r="B70" s="144"/>
+      <c r="C70" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="134"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="65"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="143"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="133" t="s">
+      <c r="B71" s="144"/>
+      <c r="C71" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="134"/>
-      <c r="E71" s="135"/>
-      <c r="F71" s="65"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="143"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="133" t="s">
+      <c r="B72" s="144"/>
+      <c r="C72" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="134"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="65"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="143"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="154"/>
-      <c r="D73" s="155"/>
-      <c r="E73" s="156"/>
-      <c r="F73" s="65"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="143"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="157" t="s">
+      <c r="B74" s="144"/>
+      <c r="C74" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="D74" s="158"/>
-      <c r="E74" s="159"/>
-      <c r="F74" s="65"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="143"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="153" t="s">
+      <c r="B75" s="144"/>
+      <c r="C75" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="145"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="65"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="143"/>
       <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
-      <c r="B76" s="66"/>
+      <c r="B76" s="144"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="145" t="s">
+      <c r="D76" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="E76" s="146"/>
-      <c r="F76" s="65"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="143"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
-      <c r="B77" s="66"/>
+      <c r="B77" s="144"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="145" t="s">
+      <c r="D77" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="E77" s="146"/>
-      <c r="F77" s="65"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="143"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="66"/>
+      <c r="B78" s="144"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="145" t="s">
+      <c r="D78" s="69" t="s">
         <v>350</v>
       </c>
-      <c r="E78" s="146"/>
-      <c r="F78" s="65"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="143"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
-      <c r="B79" s="66"/>
+      <c r="B79" s="144"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="145" t="s">
+      <c r="D79" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="E79" s="146"/>
-      <c r="F79" s="65"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="143"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="66"/>
+      <c r="B80" s="144"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="145" t="s">
+      <c r="D80" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="E80" s="146"/>
-      <c r="F80" s="65"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="143"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="153" t="s">
+      <c r="B81" s="144"/>
+      <c r="C81" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="145"/>
-      <c r="E81" s="146"/>
-      <c r="F81" s="65"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="143"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
-      <c r="B82" s="66"/>
+      <c r="B82" s="144"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="145" t="s">
+      <c r="D82" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="E82" s="146"/>
-      <c r="F82" s="65"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="143"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="66"/>
+      <c r="B83" s="144"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="145" t="s">
+      <c r="D83" s="69" t="s">
         <v>354</v>
       </c>
-      <c r="E83" s="146"/>
-      <c r="F83" s="65"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="143"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
-      <c r="B84" s="66"/>
+      <c r="B84" s="144"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="145" t="s">
+      <c r="D84" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="146"/>
-      <c r="F84" s="65"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="143"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="147"/>
-      <c r="D85" s="148"/>
-      <c r="E85" s="149"/>
-      <c r="F85" s="65"/>
+      <c r="B85" s="144"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="143"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="150" t="s">
+      <c r="B86" s="144"/>
+      <c r="C86" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="151"/>
-      <c r="E86" s="152"/>
-      <c r="F86" s="65"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="143"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="153" t="s">
+      <c r="B87" s="144"/>
+      <c r="C87" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="145"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="65"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="143"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
-      <c r="B88" s="66"/>
+      <c r="B88" s="144"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="145" t="s">
+      <c r="D88" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="146"/>
-      <c r="F88" s="65"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="143"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="162"/>
-      <c r="F89" s="65"/>
+      <c r="B89" s="144"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="143"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="166" t="s">
+      <c r="B90" s="144"/>
+      <c r="C90" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D90" s="167"/>
-      <c r="E90" s="168"/>
-      <c r="F90" s="65"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="143"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="169" t="s">
+      <c r="B91" s="144"/>
+      <c r="C91" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="170"/>
-      <c r="E91" s="171"/>
-      <c r="F91" s="65"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="143"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="172"/>
-      <c r="D92" s="173"/>
-      <c r="E92" s="174"/>
-      <c r="F92" s="65"/>
+      <c r="B92" s="144"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="143"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="175" t="s">
+      <c r="B93" s="144"/>
+      <c r="C93" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="176"/>
-      <c r="E93" s="177"/>
-      <c r="F93" s="65"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="143"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="169" t="s">
+      <c r="B94" s="144"/>
+      <c r="C94" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D94" s="170"/>
-      <c r="E94" s="171"/>
-      <c r="F94" s="65"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="143"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="163"/>
-      <c r="D95" s="164"/>
-      <c r="E95" s="165"/>
-      <c r="F95" s="65"/>
+      <c r="B95" s="144"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="143"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="59"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="61"/>
+      <c r="B96" s="137"/>
+      <c r="C96" s="138"/>
+      <c r="D96" s="138"/>
+      <c r="E96" s="138"/>
+      <c r="F96" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="B96:F96"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="F3:F95"/>
@@ -15866,16 +19162,74 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15883,7 +19237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16441,7 +19795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9D2D49-3E04-48A9-B3AA-C32F1D0E4943}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -17101,7 +20455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3A991C-24AD-48C8-B2C1-A2018D3049BF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -17930,7 +21284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834909E-D251-4C26-A6F8-EE2F18E4FD78}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18533,7 +21887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75F50DE-58B0-4380-8B4D-03B07D046C3E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -19435,7 +22789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEF2A50-44F2-433E-985E-EEBBD07A9A9C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -20107,7 +23461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A2C533-42ED-411F-B4DE-1E9461FF09DF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -20839,890 +24193,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AC207B-7F3F-4BA4-B9C5-12420BDB7C31}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AD60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:30" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="188" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="191"/>
-      <c r="J3" s="184"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="186" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="184"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="196" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="205" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="199"/>
-      <c r="J5" s="184"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="206" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="184"/>
-    </row>
-    <row r="7" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="184"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:30" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="184"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:30" ht="109.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="184"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="1:30" ht="109.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="184"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-    </row>
-    <row r="11" spans="1:30" ht="109.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="184"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-    </row>
-    <row r="12" spans="1:30" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="184"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="1:30" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="184"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="1:30" ht="49.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="184"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="1:30" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="202" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-    </row>
-    <row r="16" spans="1:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="181"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="209" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="210"/>
-    </row>
-    <row r="20" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="207"/>
-      <c r="E20" s="208"/>
-    </row>
-    <row r="21" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="211" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="212"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="D22" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="D23" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="D24" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="207"/>
-      <c r="E26" s="208"/>
-    </row>
-    <row r="27" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="211" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" s="212"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="D28" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="D29" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="D30" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="207"/>
-      <c r="E31" s="208"/>
-    </row>
-    <row r="32" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="211" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="212"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D33" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D34" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D35" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="211" t="s">
-        <v>271</v>
-      </c>
-      <c r="E38" s="212"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="207"/>
-      <c r="E41" s="208"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="211" t="s">
-        <v>272</v>
-      </c>
-      <c r="E42" s="212"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D43" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D44" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D45" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="207"/>
-      <c r="E47" s="208"/>
-    </row>
-    <row r="48" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="213" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="214"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="207"/>
-      <c r="E51" s="208"/>
-    </row>
-    <row r="52" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="213" t="s">
-        <v>270</v>
-      </c>
-      <c r="E52" s="214"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D54" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="207"/>
-      <c r="E56" s="208"/>
-    </row>
-    <row r="57" spans="4:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="211" t="s">
-        <v>293</v>
-      </c>
-      <c r="E57" s="212"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D58" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D59" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:J15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D31:E31"/>
-  </mergeCells>
-  <phoneticPr fontId="76" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="Enter to the next website: https://www.saucedemo.com/" xr:uid="{46D5EA37-F72F-4183-8ACA-925EE01F74A6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/SaucedemoTestPlan.xlsx
+++ b/SaucedemoTestPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\מידע שלי\! אלעד - תיקיות !\Auotomation Folder !\מכללת אוטומאציה - קורס ותירגול\HTML Course\MyResumeCV\cv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\UploadSeleniumJavaSoucedemo\all-info-of-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DF30E0-3B59-4990-979F-C1BAEF1A7CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6212C-B436-4436-84F6-6403FF3B91AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,17 +22,17 @@
     <sheet name="6. CO-info" sheetId="19" r:id="rId7"/>
     <sheet name="7. CO-finishE2E" sheetId="21" r:id="rId8"/>
     <sheet name="8. FunctionalE2E" sheetId="23" r:id="rId9"/>
-    <sheet name="Test Types sunnary" sheetId="24" r:id="rId10"/>
+    <sheet name="TestTypes" sheetId="24" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk137404080" localSheetId="9">'Test Types sunnary'!$C$68</definedName>
+    <definedName name="_Hlk137404080" localSheetId="9">TestTypes!$C$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="398">
   <si>
     <t>Comments</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>TC05</t>
-  </si>
-  <si>
-    <t>TC00</t>
   </si>
   <si>
     <t>Pass</t>
@@ -6031,127 +6028,6 @@
       <t xml:space="preserve">1. Click the 'Cancel' button (to Shopping-cart)
 2. Validate Shopping-cart  page in Empty-state
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>LoginElementsExist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color theme="3" tint="0.499984740745262"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>smoke</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Login page is Accessible, and  Contains all expected UI-elements
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>note</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>–  test method name is:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>tc00_LoginElementsExist()</t>
     </r>
   </si>
   <si>
@@ -12467,6 +12343,77 @@
     <r>
       <rPr>
         <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Test Plan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>( example )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">★  Orig file  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">•  Latest update: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2023-08-09  –  17:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri Light"/>
@@ -13760,98 +13707,127 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> See: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>LoginElementsExist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>smoke</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Login page is Accessible, and  Contains all expected UI-elements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Test Types sunnary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (excel tab) for a full list of test mapped…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Test Plan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>note</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="16"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>( example )</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">★  Online file  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">•  Latest update: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2023-10-18  –  12:00</t>
-    </r>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–  test method name is:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>tc01_LoginElementsExist()</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10</t>
   </si>
 </sst>
 </file>
@@ -15590,249 +15566,33 @@
     <xf numFmtId="0" fontId="27" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -15855,6 +15615,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15929,31 +15698,238 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16043,28 +16019,28 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16076,8 +16052,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000099"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF000099"/>
       <color rgb="FFB8431E"/>
       <color rgb="FFFFFFC5"/>
       <color rgb="FFFFFF66"/>
@@ -16119,7 +16095,7 @@
         <xdr:cNvPr id="2" name="תמונה 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D6E65C-49BD-480B-AE36-69FC78DEDE65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA79B9F-B85D-43C8-A282-D4C0F1DC928E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16349,7 +16325,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -16372,950 +16348,998 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="158" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="150"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="150"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="72"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="176" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" s="177"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="150"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="179" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="180"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="150"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="179" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="180"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="150"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="72"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="179" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="150"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="179" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="150"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="72"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="179" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="150"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="72"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="179" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="180"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="150"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="179" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="150"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="179" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" s="180"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="150"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="182" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="150"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="164" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="165"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="150"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="167" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="150"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="72"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="167" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="150"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="72"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="167" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="168"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="150"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="170" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="150"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="173" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="150"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="150"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="72"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="129" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="150"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="72"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="129" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="150"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="132" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="150"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="72"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="135" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="150"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="138" t="s">
+      <c r="B26" s="73"/>
+      <c r="C26" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="150"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="72"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="138" t="s">
+      <c r="B27" s="73"/>
+      <c r="C27" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="150"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="141" t="s">
+      <c r="B28" s="73"/>
+      <c r="C28" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="150"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="155" t="s">
+      <c r="B29" s="73"/>
+      <c r="C29" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="150"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="150"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="151"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="118" t="s">
+      <c r="D31" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="150"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="151"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="150"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="72"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="151"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
       <c r="E33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="150"/>
+      <c r="F33" s="72"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="151"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="150"/>
+      <c r="F34" s="72"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="151"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="6"/>
       <c r="D35" s="9"/>
       <c r="E35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="150"/>
+      <c r="F35" s="72"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="152" t="s">
+      <c r="B36" s="73"/>
+      <c r="C36" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="153"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="150"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="72"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="151"/>
-      <c r="C37" s="114" t="s">
+      <c r="B37" s="73"/>
+      <c r="C37" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="115"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="150"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="72"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="117" t="s">
+      <c r="B38" s="73"/>
+      <c r="C38" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="118"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="150"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="72"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="150"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="72"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="114" t="s">
+      <c r="B40" s="73"/>
+      <c r="C40" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="150"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="72"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="117" t="s">
+      <c r="B41" s="73"/>
+      <c r="C41" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="118"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="150"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="72"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="151"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="150"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="72"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="123" t="s">
+      <c r="B43" s="73"/>
+      <c r="C43" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="124"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="150"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="72"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="102" t="s">
+      <c r="B44" s="73"/>
+      <c r="C44" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="103"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="150"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="72"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="102" t="s">
+      <c r="B45" s="73"/>
+      <c r="C45" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="103"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="150"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="72"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="150"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="72"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="99" t="s">
+      <c r="B47" s="73"/>
+      <c r="C47" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="100"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="150"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="72"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="151"/>
-      <c r="C48" s="102" t="s">
+      <c r="B48" s="73"/>
+      <c r="C48" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="103"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="150"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="72"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="151"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="103" t="s">
+      <c r="D49" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="150"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="72"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="102" t="s">
+      <c r="B50" s="73"/>
+      <c r="C50" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="150"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="72"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="151"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="103" t="s">
+      <c r="D51" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="104"/>
-      <c r="F51" s="150"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="72"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="151"/>
-      <c r="C52" s="102" t="s">
+      <c r="B52" s="73"/>
+      <c r="C52" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="150"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="72"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="151"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="103" t="s">
+      <c r="D53" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="104"/>
-      <c r="F53" s="150"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="72"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="150"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="72"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="151"/>
-      <c r="C55" s="99" t="s">
+      <c r="B55" s="73"/>
+      <c r="C55" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="100"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="150"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="72"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="151"/>
-      <c r="C56" s="102" t="s">
+      <c r="B56" s="73"/>
+      <c r="C56" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="103"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="150"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="72"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="151"/>
-      <c r="C57" s="102" t="s">
+      <c r="B57" s="73"/>
+      <c r="C57" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="103"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="150"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="72"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="151"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="150"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="72"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="151"/>
-      <c r="C59" s="111" t="s">
+      <c r="B59" s="73"/>
+      <c r="C59" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="112"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="150"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="72"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="151"/>
-      <c r="C60" s="78" t="s">
+      <c r="B60" s="73"/>
+      <c r="C60" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="79"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="150"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="72"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="151"/>
-      <c r="C61" s="78" t="s">
+      <c r="B61" s="73"/>
+      <c r="C61" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="150"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="72"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="151"/>
-      <c r="C62" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="150"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="72"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="150"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="143" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="144"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="72"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="94"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="150"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="141"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="72"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="150"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="141"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="72"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="151"/>
-      <c r="C66" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="79"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="150"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="141"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="72"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="151"/>
-      <c r="C67" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="79"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="150"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="141"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="72"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="151"/>
-      <c r="C68" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="79"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="150"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="146"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="72"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="151"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="98"/>
-      <c r="F69" s="150"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="143" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="144"/>
+      <c r="E69" s="145"/>
+      <c r="F69" s="72"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="151"/>
-      <c r="C70" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="94"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="150"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="141"/>
+      <c r="E70" s="142"/>
+      <c r="F70" s="72"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="151"/>
-      <c r="C71" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="150"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="141"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="72"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="B72" s="151"/>
-      <c r="C72" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="79"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="150"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="73"/>
+      <c r="C72" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="141"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="72"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
-      <c r="B73" s="151"/>
-      <c r="C73" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="79"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="150"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="73"/>
+      <c r="C73" s="161"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="72"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
-      <c r="B74" s="151"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="150"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="164" t="s">
+        <v>354</v>
+      </c>
+      <c r="D74" s="165"/>
+      <c r="E74" s="166"/>
+      <c r="F74" s="72"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
-      <c r="B75" s="151"/>
-      <c r="C75" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="150"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="152"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="72"/>
+      <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
-      <c r="B76" s="151"/>
-      <c r="C76" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="150"/>
-      <c r="I76" s="10"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="152" t="s">
+        <v>349</v>
+      </c>
+      <c r="E76" s="153"/>
+      <c r="F76" s="72"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
-      <c r="B77" s="151"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="76" t="s">
-        <v>351</v>
-      </c>
-      <c r="E77" s="77"/>
-      <c r="F77" s="150"/>
+      <c r="D77" s="152" t="s">
+        <v>350</v>
+      </c>
+      <c r="E77" s="153"/>
+      <c r="F77" s="72"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="76" t="s">
-        <v>352</v>
-      </c>
-      <c r="E78" s="77"/>
-      <c r="F78" s="150"/>
+      <c r="D78" s="152" t="s">
+        <v>348</v>
+      </c>
+      <c r="E78" s="153"/>
+      <c r="F78" s="72"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
-      <c r="B79" s="151"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="76" t="s">
-        <v>350</v>
-      </c>
-      <c r="E79" s="77"/>
-      <c r="F79" s="150"/>
+      <c r="D79" s="152" t="s">
+        <v>351</v>
+      </c>
+      <c r="E79" s="153"/>
+      <c r="F79" s="72"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="151"/>
+      <c r="B80" s="73"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="76" t="s">
-        <v>353</v>
-      </c>
-      <c r="E80" s="77"/>
-      <c r="F80" s="150"/>
+      <c r="D80" s="152" t="s">
+        <v>347</v>
+      </c>
+      <c r="E80" s="153"/>
+      <c r="F80" s="72"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
-      <c r="B81" s="151"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="76" t="s">
-        <v>349</v>
-      </c>
-      <c r="E81" s="77"/>
-      <c r="F81" s="150"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="160" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="152"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="72"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
-      <c r="B82" s="151"/>
-      <c r="C82" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="150"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="152" t="s">
+        <v>353</v>
+      </c>
+      <c r="E82" s="153"/>
+      <c r="F82" s="72"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="151"/>
+      <c r="B83" s="73"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="76" t="s">
-        <v>355</v>
-      </c>
-      <c r="E83" s="77"/>
-      <c r="F83" s="150"/>
+      <c r="D83" s="152" t="s">
+        <v>352</v>
+      </c>
+      <c r="E83" s="153"/>
+      <c r="F83" s="72"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
-      <c r="B84" s="151"/>
+      <c r="B84" s="73"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="E84" s="77"/>
-      <c r="F84" s="150"/>
+      <c r="D84" s="152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="153"/>
+      <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="151"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="77"/>
-      <c r="F85" s="150"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="155"/>
+      <c r="E85" s="156"/>
+      <c r="F85" s="72"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
-      <c r="B86" s="151"/>
-      <c r="C86" s="87"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="150"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="157" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="158"/>
+      <c r="E86" s="159"/>
+      <c r="F86" s="72"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
-      <c r="B87" s="151"/>
-      <c r="C87" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" s="91"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="150"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="152"/>
+      <c r="E87" s="153"/>
+      <c r="F87" s="72"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
-      <c r="B88" s="151"/>
-      <c r="C88" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="150"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="73"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="153"/>
+      <c r="F88" s="72"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
-      <c r="B89" s="151"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="E89" s="77"/>
-      <c r="F89" s="150"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="73"/>
+      <c r="C89" s="167"/>
+      <c r="D89" s="168"/>
+      <c r="E89" s="169"/>
+      <c r="F89" s="72"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="151"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="150"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="173" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="174"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="72"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="151"/>
-      <c r="C91" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="150"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="177"/>
+      <c r="E91" s="178"/>
+      <c r="F91" s="72"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
-      <c r="B92" s="151"/>
-      <c r="C92" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" s="67"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="150"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="179"/>
+      <c r="D92" s="180"/>
+      <c r="E92" s="181"/>
+      <c r="F92" s="72"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
-      <c r="B93" s="151"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="150"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="182" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="183"/>
+      <c r="E93" s="184"/>
+      <c r="F93" s="72"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
-      <c r="B94" s="151"/>
-      <c r="C94" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="D94" s="73"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="150"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="73"/>
+      <c r="C94" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="177"/>
+      <c r="E94" s="178"/>
+      <c r="F94" s="72"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
-      <c r="B95" s="151"/>
-      <c r="C95" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="150"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="151"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="150"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="144"/>
-      <c r="C97" s="145"/>
-      <c r="D97" s="145"/>
-      <c r="E97" s="145"/>
-      <c r="F97" s="146"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="170"/>
+      <c r="D95" s="171"/>
+      <c r="E95" s="172"/>
+      <c r="F95" s="72"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="66"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B97:F97"/>
+  <mergeCells count="94">
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B96:F96"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="F3:F96"/>
-    <mergeCell ref="B3:B96"/>
+    <mergeCell ref="F3:F95"/>
+    <mergeCell ref="B3:B95"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C29:E29"/>
@@ -17328,75 +17352,16 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17405,7 +17370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51DB6A0-A123-46BD-8A19-58F12CC76022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902FEED1-5829-4F38-916B-D06B03CC7E94}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -17439,7 +17404,7 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D3" s="191"/>
     </row>
@@ -17447,7 +17412,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="191"/>
     </row>
@@ -17455,7 +17420,7 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="191"/>
     </row>
@@ -17463,7 +17428,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" s="191"/>
       <c r="E6" s="4"/>
@@ -17483,11 +17448,11 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="54" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D7" s="191"/>
       <c r="E7" s="4"/>
@@ -17507,11 +17472,11 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="192"/>
       <c r="C8" s="54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D8" s="191"/>
       <c r="E8" s="4"/>
@@ -17531,11 +17496,11 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="192"/>
       <c r="C9" s="54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" s="191"/>
       <c r="E9" s="4"/>
@@ -17555,11 +17520,11 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="192"/>
       <c r="C10" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D10" s="191"/>
       <c r="E10" s="4"/>
@@ -17579,11 +17544,11 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="192"/>
       <c r="C11" s="54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D11" s="191"/>
       <c r="E11" s="4"/>
@@ -17603,11 +17568,11 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="192"/>
       <c r="C12" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" s="191"/>
       <c r="E12" s="4"/>
@@ -17627,11 +17592,11 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="192"/>
       <c r="C13" s="54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D13" s="191"/>
       <c r="E13" s="4"/>
@@ -17651,11 +17616,11 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="192"/>
       <c r="C14" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" s="191"/>
       <c r="E14" s="4"/>
@@ -17675,11 +17640,11 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="192"/>
       <c r="C15" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D15" s="191"/>
       <c r="E15" s="4"/>
@@ -17699,11 +17664,11 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="192"/>
       <c r="C16" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D16" s="191"/>
       <c r="E16" s="4"/>
@@ -17723,11 +17688,11 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="192"/>
       <c r="C17" s="54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D17" s="191"/>
       <c r="E17" s="4"/>
@@ -17747,11 +17712,11 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="192"/>
       <c r="C18" s="54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D18" s="191"/>
       <c r="E18" s="4"/>
@@ -17771,11 +17736,11 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="192"/>
       <c r="C19" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D19" s="191"/>
       <c r="E19" s="4"/>
@@ -17795,11 +17760,11 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="192"/>
       <c r="C20" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D20" s="191"/>
       <c r="E20" s="4"/>
@@ -17819,11 +17784,11 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="192"/>
       <c r="C21" s="54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" s="191"/>
       <c r="E21" s="4"/>
@@ -17843,11 +17808,11 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="192"/>
       <c r="C22" s="54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" s="191"/>
       <c r="E22" s="4"/>
@@ -17867,11 +17832,11 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="192"/>
       <c r="C23" s="54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D23" s="191"/>
       <c r="E23" s="4"/>
@@ -17891,11 +17856,11 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="192"/>
       <c r="C24" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D24" s="191"/>
       <c r="E24" s="4"/>
@@ -17915,11 +17880,11 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="192"/>
       <c r="C25" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D25" s="191"/>
       <c r="E25" s="4"/>
@@ -17939,11 +17904,11 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="192"/>
       <c r="C26" s="54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D26" s="191"/>
       <c r="E26" s="4"/>
@@ -17963,11 +17928,11 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="192"/>
       <c r="C27" s="54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D27" s="191"/>
       <c r="E27" s="4"/>
@@ -17987,11 +17952,11 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="192"/>
       <c r="C28" s="54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D28" s="191"/>
       <c r="E28" s="4"/>
@@ -18011,11 +17976,11 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="192"/>
       <c r="C29" s="54" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D29" s="191"/>
       <c r="E29" s="4"/>
@@ -18035,11 +18000,11 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="192"/>
       <c r="C30" s="54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D30" s="191"/>
       <c r="E30" s="4"/>
@@ -18059,11 +18024,11 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="192"/>
       <c r="C31" s="54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D31" s="191"/>
       <c r="E31" s="4"/>
@@ -18083,11 +18048,11 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="192"/>
       <c r="C32" s="54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D32" s="191"/>
       <c r="E32" s="4"/>
@@ -18107,11 +18072,11 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="192"/>
       <c r="C33" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D33" s="191"/>
       <c r="E33" s="4"/>
@@ -18131,11 +18096,11 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="192"/>
       <c r="C34" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D34" s="191"/>
       <c r="E34" s="4"/>
@@ -18155,11 +18120,11 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="192"/>
       <c r="C35" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D35" s="191"/>
       <c r="E35" s="4"/>
@@ -18179,11 +18144,11 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="192"/>
       <c r="C36" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D36" s="191"/>
       <c r="E36" s="4"/>
@@ -18203,11 +18168,11 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="192"/>
       <c r="C37" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D37" s="191"/>
       <c r="E37" s="4"/>
@@ -18227,11 +18192,11 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="192"/>
       <c r="C38" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D38" s="191"/>
       <c r="E38" s="4"/>
@@ -18251,11 +18216,11 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="192"/>
       <c r="C39" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D39" s="191"/>
       <c r="E39" s="4"/>
@@ -18275,11 +18240,11 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="192"/>
       <c r="C40" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D40" s="191"/>
       <c r="E40" s="4"/>
@@ -18299,11 +18264,11 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="192"/>
       <c r="C41" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D41" s="191"/>
       <c r="E41" s="4"/>
@@ -18327,7 +18292,7 @@
       <c r="A42" s="14"/>
       <c r="B42" s="192"/>
       <c r="C42" s="56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D42" s="191"/>
       <c r="E42" s="4"/>
@@ -18439,14 +18404,14 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
       <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="198"/>
       <c r="J3" s="191"/>
@@ -18455,7 +18420,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -18469,14 +18434,14 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
       <c r="G5" s="204"/>
       <c r="H5" s="205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" s="206"/>
       <c r="J5" s="191"/>
@@ -18485,7 +18450,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="201" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D6" s="202"/>
       <c r="E6" s="202"/>
@@ -18499,22 +18464,22 @@
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>0</v>
@@ -18545,25 +18510,25 @@
       <c r="A8" s="14"/>
       <c r="B8" s="192"/>
       <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="191"/>
       <c r="K8" s="4"/>
@@ -18591,25 +18556,25 @@
       <c r="A9" s="14"/>
       <c r="B9" s="192"/>
       <c r="C9" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="J9" s="191"/>
       <c r="K9" s="4"/>
@@ -18637,25 +18602,25 @@
       <c r="A10" s="14"/>
       <c r="B10" s="192"/>
       <c r="C10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="4"/>
@@ -18683,25 +18648,25 @@
       <c r="A11" s="14"/>
       <c r="B11" s="192"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="J11" s="191"/>
       <c r="K11" s="4"/>
@@ -18729,7 +18694,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="192"/>
       <c r="C12" s="209" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="210"/>
       <c r="E12" s="210"/>
@@ -18997,14 +18962,14 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
       <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="198"/>
       <c r="J3" s="191"/>
@@ -19013,7 +18978,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -19027,14 +18992,14 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
       <c r="G5" s="204"/>
       <c r="H5" s="212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="206"/>
       <c r="J5" s="191"/>
@@ -19043,7 +19008,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="213" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="202"/>
       <c r="E6" s="202"/>
@@ -19057,22 +19022,22 @@
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>0</v>
@@ -19103,25 +19068,25 @@
       <c r="A8" s="14"/>
       <c r="B8" s="192"/>
       <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="191"/>
       <c r="K8" s="4"/>
@@ -19149,25 +19114,25 @@
       <c r="A9" s="14"/>
       <c r="B9" s="192"/>
       <c r="C9" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="191"/>
       <c r="K9" s="4"/>
@@ -19195,25 +19160,25 @@
       <c r="A10" s="14"/>
       <c r="B10" s="192"/>
       <c r="C10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="4"/>
@@ -19241,25 +19206,25 @@
       <c r="A11" s="14"/>
       <c r="B11" s="192"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="191"/>
       <c r="K11" s="4"/>
@@ -19287,25 +19252,25 @@
       <c r="A12" s="14"/>
       <c r="B12" s="192"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="191"/>
       <c r="K12" s="4"/>
@@ -19333,25 +19298,25 @@
       <c r="A13" s="14"/>
       <c r="B13" s="192"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="191"/>
       <c r="K13" s="4"/>
@@ -19382,22 +19347,22 @@
         <v>86</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="J14" s="191"/>
       <c r="K14" s="4"/>
@@ -19657,14 +19622,14 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
       <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="198"/>
       <c r="J3" s="191"/>
@@ -19673,7 +19638,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -19687,14 +19652,14 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
       <c r="G5" s="204"/>
       <c r="H5" s="212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="206"/>
       <c r="J5" s="191"/>
@@ -19703,7 +19668,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="201" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="202"/>
       <c r="E6" s="202"/>
@@ -19717,22 +19682,22 @@
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>0</v>
@@ -19763,25 +19728,25 @@
       <c r="A8" s="14"/>
       <c r="B8" s="192"/>
       <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="191"/>
       <c r="K8" s="4"/>
@@ -19809,25 +19774,25 @@
       <c r="A9" s="14"/>
       <c r="B9" s="192"/>
       <c r="C9" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="191"/>
       <c r="K9" s="4"/>
@@ -19855,25 +19820,25 @@
       <c r="A10" s="14"/>
       <c r="B10" s="192"/>
       <c r="C10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="4"/>
@@ -19901,25 +19866,25 @@
       <c r="A11" s="14"/>
       <c r="B11" s="192"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="H11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="191"/>
       <c r="K11" s="4"/>
@@ -19947,25 +19912,25 @@
       <c r="A12" s="14"/>
       <c r="B12" s="192"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="191"/>
       <c r="K12" s="4"/>
@@ -19993,25 +19958,25 @@
       <c r="A13" s="14"/>
       <c r="B13" s="192"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="191"/>
       <c r="K13" s="4"/>
@@ -20042,22 +20007,22 @@
         <v>86</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="191"/>
       <c r="K14" s="4"/>
@@ -20085,25 +20050,25 @@
       <c r="A15" s="14"/>
       <c r="B15" s="192"/>
       <c r="C15" s="20" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="191"/>
       <c r="K15" s="4"/>
@@ -20492,14 +20457,14 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
       <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="198"/>
       <c r="J3" s="191"/>
@@ -20508,7 +20473,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -20522,14 +20487,14 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
       <c r="G5" s="204"/>
       <c r="H5" s="212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="206"/>
       <c r="J5" s="191"/>
@@ -20538,7 +20503,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="201" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D6" s="202"/>
       <c r="E6" s="202"/>
@@ -20552,22 +20517,22 @@
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>0</v>
@@ -20598,25 +20563,25 @@
       <c r="A8" s="14"/>
       <c r="B8" s="192"/>
       <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="191"/>
       <c r="K8" s="4"/>
@@ -20644,23 +20609,23 @@
       <c r="A9" s="14"/>
       <c r="B9" s="192"/>
       <c r="C9" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="191"/>
       <c r="K9" s="4"/>
@@ -20688,23 +20653,23 @@
       <c r="A10" s="14"/>
       <c r="B10" s="192"/>
       <c r="C10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="4"/>
@@ -20732,25 +20697,25 @@
       <c r="A11" s="14"/>
       <c r="B11" s="192"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="191"/>
       <c r="K11" s="4"/>
@@ -20778,25 +20743,25 @@
       <c r="A12" s="14"/>
       <c r="B12" s="192"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="191"/>
       <c r="K12" s="4"/>
@@ -20824,25 +20789,25 @@
       <c r="A13" s="14"/>
       <c r="B13" s="192"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="191"/>
       <c r="K13" s="4"/>
@@ -20929,85 +20894,85 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="48" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D19" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D20" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D21" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D22" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D23" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D24" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D25" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D26" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D27" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D28" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D29" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D30" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D31" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D32" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
@@ -21089,14 +21054,14 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
       <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="198"/>
       <c r="J3" s="191"/>
@@ -21105,7 +21070,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -21119,14 +21084,14 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
       <c r="G5" s="204"/>
       <c r="H5" s="212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="206"/>
       <c r="J5" s="191"/>
@@ -21135,7 +21100,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="213" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="202"/>
       <c r="E6" s="202"/>
@@ -21149,22 +21114,22 @@
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>0</v>
@@ -21195,25 +21160,25 @@
       <c r="A8" s="14"/>
       <c r="B8" s="192"/>
       <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="191"/>
       <c r="K8" s="4"/>
@@ -21241,25 +21206,25 @@
       <c r="A9" s="14"/>
       <c r="B9" s="192"/>
       <c r="C9" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="191"/>
       <c r="K9" s="4"/>
@@ -21287,25 +21252,25 @@
       <c r="A10" s="14"/>
       <c r="B10" s="192"/>
       <c r="C10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>178</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="4"/>
@@ -21333,25 +21298,25 @@
       <c r="A11" s="14"/>
       <c r="B11" s="192"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="191"/>
       <c r="K11" s="4"/>
@@ -21379,25 +21344,25 @@
       <c r="A12" s="14"/>
       <c r="B12" s="192"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="191"/>
       <c r="K12" s="4"/>
@@ -21425,25 +21390,25 @@
       <c r="A13" s="14"/>
       <c r="B13" s="192"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="191"/>
       <c r="K13" s="4"/>
@@ -21474,19 +21439,19 @@
         <v>86</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="191"/>
@@ -21515,22 +21480,22 @@
       <c r="A15" s="14"/>
       <c r="B15" s="192"/>
       <c r="C15" s="20" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="191"/>
@@ -21559,25 +21524,25 @@
       <c r="A16" s="14"/>
       <c r="B16" s="192"/>
       <c r="C16" s="20" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="191"/>
       <c r="K16" s="4"/>
@@ -21605,25 +21570,25 @@
       <c r="A17" s="14"/>
       <c r="B17" s="192"/>
       <c r="C17" s="20" t="s">
-        <v>287</v>
+        <v>397</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" s="191"/>
       <c r="K17" s="4"/>
@@ -21991,14 +21956,14 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
       <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="198"/>
       <c r="J3" s="191"/>
@@ -22007,7 +21972,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -22021,14 +21986,14 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
       <c r="G5" s="204"/>
       <c r="H5" s="212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="206"/>
       <c r="J5" s="191"/>
@@ -22037,7 +22002,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="213" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" s="202"/>
       <c r="E6" s="202"/>
@@ -22051,22 +22016,22 @@
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>0</v>
@@ -22097,25 +22062,25 @@
       <c r="A8" s="14"/>
       <c r="B8" s="192"/>
       <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="191"/>
       <c r="K8" s="4"/>
@@ -22143,25 +22108,25 @@
       <c r="A9" s="14"/>
       <c r="B9" s="192"/>
       <c r="C9" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="191"/>
       <c r="K9" s="4"/>
@@ -22189,25 +22154,25 @@
       <c r="A10" s="14"/>
       <c r="B10" s="192"/>
       <c r="C10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="4"/>
@@ -22235,25 +22200,25 @@
       <c r="A11" s="14"/>
       <c r="B11" s="192"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="191"/>
       <c r="K11" s="4"/>
@@ -22663,14 +22628,14 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
       <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="198"/>
       <c r="J3" s="191"/>
@@ -22679,7 +22644,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -22693,14 +22658,14 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
       <c r="G5" s="204"/>
       <c r="H5" s="212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="206"/>
       <c r="J5" s="191"/>
@@ -22709,7 +22674,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="213" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="202"/>
       <c r="E6" s="202"/>
@@ -22723,22 +22688,22 @@
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>0</v>
@@ -22769,25 +22734,25 @@
       <c r="A8" s="14"/>
       <c r="B8" s="192"/>
       <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="191"/>
       <c r="K8" s="4"/>
@@ -22815,25 +22780,25 @@
       <c r="A9" s="14"/>
       <c r="B9" s="192"/>
       <c r="C9" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="191"/>
       <c r="K9" s="4"/>
@@ -22861,25 +22826,25 @@
       <c r="A10" s="14"/>
       <c r="B10" s="192"/>
       <c r="C10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="4"/>
@@ -22907,25 +22872,25 @@
       <c r="A11" s="14"/>
       <c r="B11" s="192"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="191"/>
       <c r="K11" s="4"/>
@@ -22953,25 +22918,25 @@
       <c r="A12" s="14"/>
       <c r="B12" s="192"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="191"/>
       <c r="K12" s="4"/>
@@ -22999,25 +22964,25 @@
       <c r="A13" s="14"/>
       <c r="B13" s="192"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="191"/>
       <c r="K13" s="4"/>
@@ -23397,14 +23362,14 @@
       <c r="A3" s="14"/>
       <c r="B3" s="192"/>
       <c r="C3" s="195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
       <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="198"/>
       <c r="J3" s="191"/>
@@ -23413,7 +23378,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="192"/>
       <c r="C4" s="193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -23427,14 +23392,14 @@
       <c r="A5" s="14"/>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
       <c r="G5" s="204"/>
       <c r="H5" s="212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="206"/>
       <c r="J5" s="191"/>
@@ -23443,7 +23408,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="192"/>
       <c r="C6" s="213" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D6" s="202"/>
       <c r="E6" s="202"/>
@@ -23457,22 +23422,22 @@
       <c r="A7" s="14"/>
       <c r="B7" s="192"/>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>0</v>
@@ -23506,22 +23471,22 @@
         <v>59</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="191"/>
       <c r="K8" s="4"/>
@@ -23552,22 +23517,22 @@
         <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="191"/>
       <c r="K9" s="4"/>
@@ -23598,22 +23563,22 @@
         <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="4"/>
@@ -23644,22 +23609,22 @@
         <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="191"/>
       <c r="K11" s="4"/>
@@ -23690,22 +23655,22 @@
         <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="191"/>
       <c r="K12" s="4"/>
@@ -23733,25 +23698,25 @@
       <c r="A13" s="14"/>
       <c r="B13" s="192"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="191"/>
       <c r="K13" s="4"/>
@@ -23779,25 +23744,25 @@
       <c r="A14" s="14"/>
       <c r="B14" s="192"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="191"/>
       <c r="K14" s="4"/>
@@ -23899,305 +23864,305 @@
     </row>
     <row r="18" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="220" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="221"/>
+      <c r="D19" s="216" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="217"/>
     </row>
     <row r="20" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="216"/>
-      <c r="E20" s="217"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
     </row>
     <row r="21" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="214" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="215"/>
+      <c r="D21" s="218" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="219"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D22" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D23" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D24" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="2:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="216"/>
-      <c r="E26" s="217"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="215"/>
     </row>
     <row r="27" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="214" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" s="215"/>
+      <c r="D27" s="218" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="219"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D28" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D29" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D30" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:30" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="216"/>
-      <c r="E31" s="217"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
     </row>
     <row r="32" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="214" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="215"/>
+      <c r="D32" s="218" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="219"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D33" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D34" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D35" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D36" s="42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="216"/>
-      <c r="E37" s="217"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="215"/>
       <c r="G37" s="36"/>
     </row>
     <row r="38" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="214" t="s">
-        <v>271</v>
-      </c>
-      <c r="E38" s="215"/>
+      <c r="D38" s="218" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" s="219"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D39" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G40" s="1"/>
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="216"/>
-      <c r="E41" s="217"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="215"/>
       <c r="G41" s="36"/>
     </row>
     <row r="42" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="214" t="s">
-        <v>272</v>
-      </c>
-      <c r="E42" s="215"/>
+      <c r="D42" s="218" t="s">
+        <v>270</v>
+      </c>
+      <c r="E42" s="219"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D44" s="37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D45" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D46" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="4:9" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="216"/>
-      <c r="E47" s="217"/>
+      <c r="D47" s="214"/>
+      <c r="E47" s="215"/>
     </row>
     <row r="48" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="218" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="219"/>
+      <c r="D48" s="220" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" s="221"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D50" s="39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="4:5" s="35" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="216"/>
-      <c r="E51" s="217"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
     </row>
     <row r="52" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="218" t="s">
-        <v>270</v>
-      </c>
-      <c r="E52" s="219"/>
+      <c r="D52" s="220" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="221"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D55" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="4:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="216"/>
-      <c r="E56" s="217"/>
+      <c r="D56" s="214"/>
+      <c r="E56" s="215"/>
     </row>
     <row r="57" spans="4:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="214" t="s">
-        <v>293</v>
-      </c>
-      <c r="E57" s="215"/>
+      <c r="D57" s="218" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" s="219"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D60" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="B2:J2"/>
@@ -24214,12 +24179,12 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <phoneticPr fontId="76" type="noConversion"/>
   <hyperlinks>
